--- a/INTLINE/data/134/DEUSTATIS/Population - reference date.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Population - reference date.xlsx
@@ -257,7 +257,7 @@
     <t>From 2011: Results based on the 2011 Census.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:41:40</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:48:18</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1566,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:41:42&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:48:21&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Population - reference date.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Population - reference date.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Population: Germany, reference date</t>
   </si>
@@ -248,6 +248,9 @@
     <t>2020-12-31</t>
   </si>
   <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
     <t>______________</t>
   </si>
   <si>
@@ -257,7 +260,7 @@
     <t>From 2011: Results based on the 2011 Census.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:48:18</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:03:48</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1540,11 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="11">
+      <c r="A77" t="s" s="13">
         <v>77</v>
+      </c>
+      <c r="B77" t="n" s="10">
+        <v>8.3237124E7</v>
       </c>
     </row>
     <row r="78">
@@ -1546,14 +1552,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="11">
+    <row r="79">
+      <c r="A79" t="s" s="11">
         <v>79</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="11">
         <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="12">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1577,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:48:21&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:03:52&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>